--- a/data_excel/158.xlsx
+++ b/data_excel/158.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,11 +147,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特點</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +533,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -716,15 +716,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>39</v>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
